--- a/data_10_customers_corner_depot.xlsx
+++ b/data_10_customers_corner_depot.xlsx
@@ -485,13 +485,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>93.95166872824112</v>
+        <v>32.20124435751839</v>
       </c>
       <c r="C3" t="n">
-        <v>47.1446198237893</v>
+        <v>61.4098707906767</v>
       </c>
       <c r="D3" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -504,13 +504,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>97.25355426863092</v>
+        <v>71.78949224397809</v>
       </c>
       <c r="C4" t="n">
-        <v>10.00756968868938</v>
+        <v>71.23563626884432</v>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -523,13 +523,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>9.119326292023889</v>
+        <v>42.57790778778182</v>
       </c>
       <c r="C5" t="n">
-        <v>70.88683611832835</v>
+        <v>70.06107183688876</v>
       </c>
       <c r="D5" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -542,13 +542,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>74.0207257031972</v>
+        <v>49.40660539332007</v>
       </c>
       <c r="C6" t="n">
-        <v>93.17114876268587</v>
+        <v>26.8969039682035</v>
       </c>
       <c r="D6" t="n">
-        <v>-7</v>
+        <v>-5</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -561,13 +561,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>21.57834263002406</v>
+        <v>20.51977692512376</v>
       </c>
       <c r="C7" t="n">
-        <v>59.71735010439747</v>
+        <v>15.82290365754599</v>
       </c>
       <c r="D7" t="n">
-        <v>-16</v>
+        <v>-6</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -580,13 +580,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>12.66687730735047</v>
+        <v>94.45127280797422</v>
       </c>
       <c r="C8" t="n">
-        <v>25.9869913409332</v>
+        <v>17.85044033230415</v>
       </c>
       <c r="D8" t="n">
-        <v>-19</v>
+        <v>-12</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -599,10 +599,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>76.48062690288333</v>
+        <v>8.706445071879587</v>
       </c>
       <c r="C9" t="n">
-        <v>42.08515043504953</v>
+        <v>45.71070252265879</v>
       </c>
       <c r="D9" t="n">
         <v>-12</v>
@@ -618,13 +618,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>69.10418726159484</v>
+        <v>99.37482906364231</v>
       </c>
       <c r="C10" t="n">
-        <v>99.40523990445725</v>
+        <v>63.38893252756429</v>
       </c>
       <c r="D10" t="n">
-        <v>-12</v>
+        <v>-9</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -637,13 +637,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>57.92993110641379</v>
+        <v>85.48048109897772</v>
       </c>
       <c r="C11" t="n">
-        <v>89.22632163739793</v>
+        <v>0.8235459428927117</v>
       </c>
       <c r="D11" t="n">
-        <v>-13</v>
+        <v>-12</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -656,13 +656,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>88.4102179466707</v>
+        <v>28.14626655515138</v>
       </c>
       <c r="C12" t="n">
-        <v>1.043495535290984</v>
+        <v>67.7421641632304</v>
       </c>
       <c r="D12" t="n">
-        <v>-9</v>
+        <v>-11</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
